--- a/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
+++ b/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ProofComplexityAndBeyond\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ScheduleAndReport\Schedule_Oberwolfach2413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72575E5C-56A4-4D12-A110-A598E8A68A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC473CB-F033-421D-980A-3F33B1E1EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Other</t>
   </si>
@@ -278,6 +278,24 @@
   </si>
   <si>
     <t>Currently free slot</t>
+  </si>
+  <si>
+    <t>Jakob Nordström</t>
+  </si>
+  <si>
+    <t>Certifying combinatorial solving using</t>
+  </si>
+  <si>
+    <t>cutting planes with strengthening</t>
+  </si>
+  <si>
+    <t>Strength of the dominance rule</t>
+  </si>
+  <si>
+    <t>Aaron Potechin</t>
+  </si>
+  <si>
+    <t>Nullstellensatz and coefficient size</t>
   </si>
 </sst>
 </file>
@@ -881,7 +899,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,8 +970,8 @@
       <c r="E5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>80</v>
+      <c r="F5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G5" s="7">
         <v>0.375</v>
@@ -976,8 +994,8 @@
       <c r="E6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>79</v>
+      <c r="F6" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="G6" s="7">
         <v>0.38541666666666669</v>
@@ -997,8 +1015,8 @@
       <c r="E7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>80</v>
+      <c r="F7" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="7">
         <v>0.39583333333333331</v>
@@ -1013,9 +1031,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="33" t="s">
-        <v>79</v>
-      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="7">
         <v>0.40625</v>
       </c>
@@ -1065,8 +1081,8 @@
       <c r="E11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>80</v>
+      <c r="F11" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="7">
         <v>0.4375</v>
@@ -1088,8 +1104,8 @@
       <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>79</v>
+      <c r="F12" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="G12" s="7">
         <v>0.44791666666666702</v>
@@ -1111,8 +1127,8 @@
       <c r="E13" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>80</v>
+      <c r="F13" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="G13" s="7">
         <v>0.45833333333333298</v>
@@ -1135,8 +1151,8 @@
       <c r="E14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>79</v>
+      <c r="F14" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G14" s="7">
         <v>0.46875</v>

--- a/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
+++ b/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ScheduleAndReport\Schedule_Oberwolfach2413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC473CB-F033-421D-980A-3F33B1E1EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C517C-E88A-4F7A-8959-223257AE172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +590,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +908,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,8 +1218,8 @@
       <c r="A17" s="7">
         <v>0.5</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>68</v>
+      <c r="B17" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>30</v>
@@ -1232,8 +1241,8 @@
       <c r="A18" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>69</v>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -1278,7 +1287,7 @@
       <c r="A20" s="7">
         <v>0.531250000000002</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1291,7 +1300,7 @@
       <c r="A21" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
@@ -1304,7 +1313,7 @@
       <c r="A22" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
@@ -1317,7 +1326,7 @@
       <c r="A23" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
@@ -1605,8 +1614,8 @@
       <c r="A41" s="7">
         <v>0.75000000000000799</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>13</v>
+      <c r="B41" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>46</v>
@@ -1624,8 +1633,8 @@
       <c r="A42" s="7">
         <v>0.76041666666667496</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>12</v>
+      <c r="B42" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>47</v>

--- a/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
+++ b/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ScheduleAndReport\Schedule_Oberwolfach2413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C517C-E88A-4F7A-8959-223257AE172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94042657-A31F-4A96-B8F2-0154A72F1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Nicola Galesi</t>
   </si>
   <si>
-    <t>Algebraic proof cplx of tensors</t>
-  </si>
-  <si>
     <t>Dmitry Itsykson</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>Nullstellensatz and coefficient size</t>
+  </si>
+  <si>
+    <t>Algebraic proof complexity of tensors</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,9 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,15 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,7 +896,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +914,7 @@
     <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -944,14 +932,14 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4"/>
@@ -974,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7">
         <v>0.375</v>
@@ -998,13 +986,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7">
         <v>0.38541666666666669</v>
@@ -1022,10 +1010,10 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7">
         <v>0.39583333333333331</v>
@@ -1036,11 +1024,11 @@
       <c r="A8" s="7">
         <v>0.40625</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="7">
         <v>0.40625</v>
       </c>
@@ -1050,11 +1038,11 @@
       <c r="A9" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1064,11 +1052,11 @@
       <c r="A10" s="7">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="7">
         <v>0.42708333333333298</v>
       </c>
@@ -1085,12 +1073,12 @@
         <v>19</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="7">
@@ -1102,19 +1090,19 @@
         <v>0.44791666666666702</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7">
         <v>0.44791666666666702</v>
@@ -1124,20 +1112,20 @@
       <c r="A13" s="7">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7">
         <v>0.45833333333333298</v>
@@ -1152,16 +1140,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7">
         <v>0.46875</v>
@@ -1172,19 +1160,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="7">
         <v>0.47916666666666702</v>
@@ -1196,19 +1184,19 @@
         <v>0.48958333333333398</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="7">
         <v>0.48958333333333398</v>
@@ -1218,20 +1206,20 @@
       <c r="A17" s="7">
         <v>0.5</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="G17" s="7">
         <v>0.5</v>
@@ -1241,20 +1229,20 @@
       <c r="A18" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="7">
         <v>0.51041666666666796</v>
@@ -1287,7 +1275,7 @@
       <c r="A20" s="7">
         <v>0.531250000000002</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1300,7 +1288,7 @@
       <c r="A21" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
@@ -1313,7 +1301,7 @@
       <c r="A22" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
@@ -1326,12 +1314,12 @@
       <c r="A23" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="32" t="s">
-        <v>80</v>
+      <c r="F23" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="G23" s="7">
         <v>0.5625</v>
@@ -1347,8 +1335,8 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="33" t="s">
-        <v>79</v>
+      <c r="F24" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G24" s="7">
         <v>0.57291666666666796</v>
@@ -1364,8 +1352,8 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="32" t="s">
-        <v>80</v>
+      <c r="F25" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="G25" s="7">
         <v>0.58333333333333504</v>
@@ -1382,8 +1370,8 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="33" t="s">
-        <v>79</v>
+      <c r="F26" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G26" s="7">
         <v>0.593750000000002</v>
@@ -1476,14 +1464,14 @@
         <v>0.66666666666667196</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
@@ -1495,14 +1483,14 @@
         <v>0.67708333333333903</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="7">
@@ -1514,14 +1502,14 @@
         <v>0.687500000000006</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="7">
@@ -1532,11 +1520,11 @@
       <c r="A36" s="7">
         <v>0.69791666666667296</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="27" t="s">
-        <v>55</v>
+      <c r="E36" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="7">
@@ -1548,9 +1536,9 @@
       <c r="A37" s="7">
         <v>0.70833333333334003</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="1"/>
       <c r="G37" s="7">
         <v>0.70833333333334003</v>
@@ -1561,10 +1549,10 @@
       <c r="A38" s="7">
         <v>0.71875000000000699</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="30"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="1"/>
       <c r="G38" s="7">
         <v>0.71875000000000699</v>
@@ -1575,15 +1563,15 @@
       <c r="A39" s="7">
         <v>0.72916666666667396</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>44</v>
+      <c r="B39" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="28" t="s">
-        <v>50</v>
+      <c r="E39" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="7">
@@ -1596,14 +1584,14 @@
         <v>0.73958333333334103</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="7">
@@ -1615,14 +1603,14 @@
         <v>0.75000000000000799</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="7">
@@ -1634,14 +1622,14 @@
         <v>0.76041666666667496</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="7">

--- a/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
+++ b/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ScheduleAndReport\Schedule_Oberwolfach2413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94042657-A31F-4A96-B8F2-0154A72F1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3115E0A-20C5-4763-8F90-B43EB59B9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Other</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Algebraic proof complexity of tensors</t>
+  </si>
+  <si>
+    <t>Open problems session?</t>
+  </si>
+  <si>
+    <t>Music evening?</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -489,11 +495,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,6 +608,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,10 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,37 +1710,62 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="7">
+        <v>0.80208333333334303</v>
+      </c>
       <c r="B46" s="14"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="14"/>
+      <c r="G46" s="7">
+        <v>0.80208333333334303</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="7">
+        <v>0.81250000000000999</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="F47" s="1"/>
+      <c r="G47" s="7">
+        <v>0.81250000000000999</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="7">
+        <v>0.82291666666667695</v>
+      </c>
       <c r="B48" s="8"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="G48" s="7">
+        <v>0.82291666666667695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>0.83333333333334403</v>
+      </c>
       <c r="B49" s="13"/>
+      <c r="C49" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="7">
+        <v>0.83333333333334403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.39370078740157483" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
+++ b/Schedule_Oberwolfach2413/Oberwolfach_2413_ScheduleOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WorkshopsConferencesEvents\Oberwolfach2413_ScheduleAndReport\Schedule_Oberwolfach2413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3115E0A-20C5-4763-8F90-B43EB59B9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4495700-CEDB-4FEB-BA51-C42EEA25151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Other</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>of participants</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>Long talk (50-55 min)</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Top-down LBs for depth-4 circuits</t>
   </si>
   <si>
-    <t>Olaf Beyersdorff</t>
-  </si>
-  <si>
     <t>Proof complexity &amp; QBF</t>
   </si>
   <si>
@@ -298,10 +289,28 @@
     <t>Algebraic proof complexity of tensors</t>
   </si>
   <si>
-    <t>Open problems session?</t>
-  </si>
-  <si>
-    <t>Music evening?</t>
+    <t>Marco Carmosino</t>
+  </si>
+  <si>
+    <t>Open problems session</t>
+  </si>
+  <si>
+    <t>Music evening</t>
+  </si>
+  <si>
+    <t>Presentation of</t>
+  </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>participants (cont.)</t>
+  </si>
+  <si>
+    <t>Provability of circuit size hierarchies</t>
+  </si>
+  <si>
+    <t>Meena Mahajan</t>
   </si>
 </sst>
 </file>
@@ -514,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,6 +620,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -922,8 +940,8 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +959,7 @@
     <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -959,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -983,19 +1001,19 @@
         <v>0.375</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7">
         <v>0.375</v>
@@ -1007,19 +1025,19 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7">
         <v>0.38541666666666669</v>
@@ -1033,14 +1051,14 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7">
         <v>0.39583333333333331</v>
@@ -1094,19 +1112,19 @@
         <v>0.4375</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="7">
         <v>0.4375</v>
@@ -1117,19 +1135,19 @@
         <v>0.44791666666666702</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7">
         <v>0.44791666666666702</v>
@@ -1140,19 +1158,19 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="7">
         <v>0.45833333333333298</v>
@@ -1164,19 +1182,19 @@
         <v>0.46875</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7">
         <v>0.46875</v>
@@ -1187,19 +1205,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G15" s="7">
         <v>0.47916666666666702</v>
@@ -1211,19 +1229,19 @@
         <v>0.48958333333333398</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="7">
         <v>0.48958333333333398</v>
@@ -1234,19 +1252,19 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7">
         <v>0.5</v>
@@ -1257,19 +1275,19 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7">
         <v>0.51041666666666796</v>
@@ -1291,9 +1309,7 @@
       <c r="E19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="7">
         <v>0.52083333333333504</v>
       </c>
@@ -1319,7 +1335,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1332,7 +1348,9 @@
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="G22" s="7">
         <v>0.55208333333333337</v>
       </c>
@@ -1345,9 +1363,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="31" t="s">
-        <v>79</v>
-      </c>
+      <c r="F23" s="35"/>
       <c r="G23" s="7">
         <v>0.5625</v>
       </c>
@@ -1362,9 +1378,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="F24" s="36"/>
       <c r="G24" s="7">
         <v>0.57291666666666796</v>
       </c>
@@ -1375,12 +1389,12 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="31" t="s">
-        <v>79</v>
+      <c r="F25" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <v>0.58333333333333504</v>
@@ -1393,13 +1407,11 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="7">
         <v>0.593750000000002</v>
       </c>
@@ -1428,9 +1440,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="7">
         <v>0.61458333333333603</v>
       </c>
@@ -1456,7 +1466,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="1"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="7">
         <v>0.63541666666667096</v>
       </c>
@@ -1465,10 +1475,12 @@
       <c r="A31" s="7">
         <v>0.64583333333333803</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7">
         <v>0.64583333333333803</v>
       </c>
@@ -1477,7 +1489,9 @@
       <c r="A32" s="7">
         <v>0.656250000000005</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="6"/>
       <c r="E32" s="13"/>
@@ -1491,14 +1505,14 @@
         <v>0.66666666666667196</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="20" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
@@ -1510,14 +1524,14 @@
         <v>0.67708333333333903</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="7">
@@ -1529,14 +1543,14 @@
         <v>0.687500000000006</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="7">
@@ -1551,7 +1565,7 @@
       <c r="C36" s="30"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="7">
@@ -1591,14 +1605,14 @@
         <v>0.72916666666667396</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="7">
@@ -1611,14 +1625,14 @@
         <v>0.73958333333334103</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="7">
@@ -1630,14 +1644,14 @@
         <v>0.75000000000000799</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="7">
@@ -1649,14 +1663,14 @@
         <v>0.76041666666667496</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="7">
@@ -1745,10 +1759,10 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="7">
